--- a/regions/2/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/2/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -229,7 +229,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P14"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -537,7 +537,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1">
+    <row r="1" spans="1:18" ht="30" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
@@ -556,8 +556,10 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -573,7 +575,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="17">
         <v>2006</v>
@@ -620,8 +622,14 @@
       <c r="P3" s="18">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
+      <c r="Q3" s="18">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -670,8 +678,14 @@
       <c r="P4" s="12">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
+      <c r="Q4" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="R4" s="12">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -720,8 +734,14 @@
       <c r="P5" s="11">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
+      <c r="Q5" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="R5" s="11">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -770,8 +790,14 @@
       <c r="P6" s="16">
         <v>915</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
+      <c r="Q6" s="16">
+        <v>933</v>
+      </c>
+      <c r="R6" s="16">
+        <v>997.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -820,8 +846,14 @@
       <c r="P7" s="16">
         <v>837</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
+      <c r="Q7" s="16">
+        <v>840</v>
+      </c>
+      <c r="R7" s="16">
+        <v>989.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -870,8 +902,14 @@
       <c r="P8" s="11">
         <v>486.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
+      <c r="Q8" s="11">
+        <v>277.7</v>
+      </c>
+      <c r="R8" s="11">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -920,8 +958,14 @@
       <c r="P9" s="11">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
+      <c r="Q9" s="11">
+        <v>11.8</v>
+      </c>
+      <c r="R9" s="11">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -970,8 +1014,14 @@
       <c r="P10" s="11">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="Q10" s="11">
+        <v>3</v>
+      </c>
+      <c r="R10" s="11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -1020,8 +1070,14 @@
       <c r="P11" s="14">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
+      <c r="Q11" s="14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R11" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -1070,8 +1126,14 @@
       <c r="P12" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -1120,8 +1182,14 @@
       <c r="P13" s="11">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="30">
+      <c r="Q13" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="R13" s="11">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
@@ -1170,8 +1238,14 @@
       <c r="P14" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1188,7 +1262,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1">
+    <row r="16" spans="1:18" s="1" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1353,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/2/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/2/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -537,7 +537,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1">
+    <row r="1" spans="1:19" ht="30" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
@@ -559,7 +559,7 @@
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -575,7 +575,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="17">
         <v>2006</v>
@@ -628,8 +628,11 @@
       <c r="R3" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75">
+      <c r="S3" s="18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -684,8 +687,11 @@
       <c r="R4" s="12">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
+      <c r="S4" s="12">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -740,8 +746,11 @@
       <c r="R5" s="11">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
+      <c r="S5" s="11">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -796,8 +805,11 @@
       <c r="R6" s="16">
         <v>997.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75">
+      <c r="S6" s="16">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -852,8 +864,11 @@
       <c r="R7" s="16">
         <v>989.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75">
+      <c r="S7" s="16">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -908,8 +923,11 @@
       <c r="R8" s="11">
         <v>351</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75">
+      <c r="S8" s="11">
+        <v>916.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -964,8 +982,11 @@
       <c r="R9" s="11">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75">
+      <c r="S9" s="11">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1020,8 +1041,11 @@
       <c r="R10" s="11">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75">
+      <c r="S10" s="11">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -1076,8 +1100,11 @@
       <c r="R11" s="14">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75">
+      <c r="S11" s="14">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -1132,8 +1159,11 @@
       <c r="R12" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75">
+      <c r="S12" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -1188,8 +1218,11 @@
       <c r="R13" s="11">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
+      <c r="S13" s="11">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
@@ -1244,8 +1277,11 @@
       <c r="R14" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1262,7 +1298,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
